--- a/Economica/LB 2.xlsx
+++ b/Economica/LB 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merkyr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Economica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6948FEEB-860F-4B77-8883-2EEEB7B6A8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AA92CF-BAD8-442D-9A0A-9E6F8808B64F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="939" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="212">
   <si>
     <t>Абревіатура</t>
   </si>
@@ -683,6 +683,9 @@
   <si>
     <t xml:space="preserve">ROMI 300%, </t>
   </si>
+  <si>
+    <t>Epic Game Store</t>
+  </si>
 </sst>
 </file>
 
@@ -848,7 +851,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +916,48 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1455,9 +1500,6 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1479,17 +1521,6 @@
     <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1499,6 +1530,88 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1845,7 +1958,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2363,7 +2476,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2465,92 +2578,92 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="154" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="155">
         <v>25000</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="162">
         <v>1200</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="157">
         <v>10.5</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="157">
         <v>1200</v>
       </c>
-      <c r="F3" s="154">
+      <c r="F3" s="158">
         <v>1</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="157">
         <v>900</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="157">
         <v>0</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="17">
         <f>C3/B3</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="69">
         <f>(E3-G3)*F3-H3</f>
         <v>300</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="69">
         <f t="shared" ref="K3:K7" si="0">J3*I3</f>
         <v>14.4</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="66">
         <f>B3*(K3-D3)</f>
         <v>97500.000000000015</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="18">
         <f>(K3 - D3) / (D3)</f>
         <v>0.37142857142857144</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="165" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="166">
         <v>10000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="167">
         <f>120</f>
         <v>120</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="168">
         <v>9.5</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="168">
         <v>1200</v>
       </c>
-      <c r="F4" s="154">
+      <c r="F4" s="169">
         <v>1</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="168">
         <v>900</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="17">
+      <c r="H4" s="168"/>
+      <c r="I4" s="170">
         <f>C4/B4</f>
         <v>1.2E-2</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="171">
         <f>(E4-G4)*F4-H4</f>
         <v>300</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="171">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="172">
         <f>B4*(K4-D4)</f>
         <v>-59000</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="173">
         <f>(K4 - D4) / (D4)</f>
         <v>-0.62105263157894741</v>
       </c>
@@ -2559,73 +2672,71 @@
       <c r="A5" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="155">
         <v>35000</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="155">
         <f>1900</f>
         <v>1900</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="157">
         <v>10</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="157">
         <v>1200</v>
       </c>
-      <c r="F5" s="154">
+      <c r="F5" s="158">
         <v>1</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="157">
         <v>900</v>
       </c>
-      <c r="H5" s="70">
-        <v>10</v>
-      </c>
+      <c r="H5" s="157"/>
       <c r="I5" s="17">
         <f>C5/B5</f>
         <v>5.4285714285714284E-2</v>
       </c>
       <c r="J5" s="69">
         <f>(E5-G5)*F5-H5</f>
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K5" s="69">
         <f t="shared" si="0"/>
-        <v>15.742857142857142</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="L5" s="66">
         <f>B5*(K5-D5)</f>
-        <v>200999.99999999997</v>
+        <v>219999.99999999997</v>
       </c>
       <c r="M5" s="18">
         <f>(K5 - D5) / (D5)</f>
-        <v>0.57428571428571418</v>
+        <v>0.62857142857142845</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="155">
         <v>13000</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="155">
         <f>450</f>
         <v>450</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="157">
         <v>8.5</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="157">
         <v>1200</v>
       </c>
-      <c r="F6" s="154">
+      <c r="F6" s="158">
         <v>1</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="157">
         <v>900</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="157">
         <f>0</f>
         <v>0</v>
       </c>
@@ -2654,26 +2765,26 @@
       <c r="A7" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="155">
         <v>8000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="155">
         <f>250</f>
         <v>250</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="156">
         <v>5.3</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="157">
         <v>1200</v>
       </c>
-      <c r="F7" s="154">
+      <c r="F7" s="158">
         <v>1</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="157">
         <v>900</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="157">
         <f>0</f>
         <v>0</v>
       </c>
@@ -2699,49 +2810,49 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="160"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="159"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="160"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="159"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="160"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="159"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="82"/>
@@ -11908,9 +12019,9 @@
   </sheetPr>
   <dimension ref="A1:X651"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12169,16 +12280,16 @@
       <c r="D4" s="12">
         <v>1200</v>
       </c>
-      <c r="E4" s="171">
+      <c r="E4" s="161">
         <v>10.5</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="161">
         <v>0</v>
       </c>
-      <c r="G4" s="171">
+      <c r="G4" s="161">
         <v>0</v>
       </c>
-      <c r="H4" s="171">
+      <c r="H4" s="161">
         <v>1200</v>
       </c>
       <c r="I4" s="12">
@@ -12199,7 +12310,7 @@
         <f>(S4 - E4 - F4 - (G4*C4/B4)) / (E4 + F4 + (G4*C4/B4))</f>
         <v>0.37142857142857144</v>
       </c>
-      <c r="N4" s="161">
+      <c r="N4" s="160">
         <f>C4/B4</f>
         <v>4.8000000000000001E-2</v>
       </c>
@@ -12268,7 +12379,7 @@
       <c r="G5" s="70">
         <v>0</v>
       </c>
-      <c r="H5" s="171">
+      <c r="H5" s="161">
         <v>1200</v>
       </c>
       <c r="I5" s="12">
@@ -12358,7 +12469,7 @@
       <c r="G6" s="70">
         <v>0</v>
       </c>
-      <c r="H6" s="171">
+      <c r="H6" s="161">
         <v>1200</v>
       </c>
       <c r="I6" s="12">
@@ -12367,17 +12478,14 @@
       <c r="J6" s="70">
         <v>900</v>
       </c>
-      <c r="K6" s="70">
-        <f>10</f>
-        <v>10</v>
-      </c>
+      <c r="K6" s="70"/>
       <c r="L6" s="66">
         <f>B6*(S6-(E6+F6+(G6*C6/B6)))</f>
-        <v>200999.99999999997</v>
+        <v>219999.99999999997</v>
       </c>
       <c r="M6" s="18">
         <f>(S6 - E6 - F6 - (G6*C6/B6)) / (E6 + F6 + (G6*C6/B6))</f>
-        <v>0.57428571428571418</v>
+        <v>0.62857142857142845</v>
       </c>
       <c r="N6" s="17">
         <f t="shared" si="7"/>
@@ -12397,11 +12505,11 @@
       </c>
       <c r="R6" s="69">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="S6" s="69">
         <f t="shared" si="5"/>
-        <v>15.742857142857142</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="T6" s="85">
         <f>(B6/C6)*(E6+F6)+(G6*C6/C6)</f>
@@ -12421,7 +12529,7 @@
       </c>
       <c r="X6" s="32">
         <f>(S6 - E6 -F6 -(G6*C6/B6))/S6</f>
-        <v>0.36479128856624315</v>
+        <v>0.38596491228070173</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
@@ -12448,7 +12556,7 @@
       <c r="G7" s="70">
         <v>0</v>
       </c>
-      <c r="H7" s="171">
+      <c r="H7" s="161">
         <v>1200</v>
       </c>
       <c r="I7" s="12">
@@ -12536,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="71"/>
-      <c r="H8" s="171">
+      <c r="H8" s="161">
         <v>1200</v>
       </c>
       <c r="I8" s="12">
@@ -12603,82 +12711,82 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="174"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="164"/>
     </row>
     <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="174"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="164"/>
     </row>
     <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="174"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="164"/>
     </row>
     <row r="12" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="82"/>
@@ -12708,14 +12816,14 @@
     </row>
     <row r="13" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
       <c r="J13" s="83"/>
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
@@ -12734,14 +12842,14 @@
     </row>
     <row r="14" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="82"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="164"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="177"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
@@ -12760,14 +12868,14 @@
     </row>
     <row r="15" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="82"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="167"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="180"/>
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
@@ -12786,14 +12894,14 @@
     </row>
     <row r="16" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="82"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
@@ -12812,14 +12920,14 @@
     </row>
     <row r="17" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="82"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="170"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="183"/>
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
       <c r="L17" s="83"/>
@@ -12838,14 +12946,14 @@
     </row>
     <row r="18" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
       <c r="J18" s="83"/>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
@@ -12864,14 +12972,14 @@
     </row>
     <row r="19" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
       <c r="J19" s="83"/>
       <c r="K19" s="83"/>
       <c r="L19" s="83"/>
@@ -12890,14 +12998,14 @@
     </row>
     <row r="20" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
       <c r="J20" s="83"/>
       <c r="K20" s="83"/>
       <c r="L20" s="83"/>
@@ -29340,7 +29448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:G8"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29521,76 +29629,76 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="185">
         <v>25000</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="186">
         <v>1200</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="187">
         <v>10.5</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="188">
         <v>1</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="188">
         <v>0</v>
       </c>
-      <c r="G4" s="171">
+      <c r="G4" s="187">
         <v>1200</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="189">
         <v>0.3</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="190">
         <v>1</v>
       </c>
-      <c r="J4" s="75">
-        <f t="shared" ref="J4:J10" si="0">B4*(N4-(D4+F4+E4))</f>
-        <v>144500.00000000003</v>
-      </c>
-      <c r="K4" s="89">
-        <f t="shared" ref="K4:K10" si="1">(N4 - D4 - F4 - E4) / (D4 + F4 + E4)</f>
-        <v>0.50260869565217403</v>
-      </c>
-      <c r="L4" s="90">
-        <f t="shared" ref="L4:L10" si="2">C4/B4</f>
+      <c r="J4" s="191">
+        <f t="shared" ref="J4:J8" si="0">B4*(N4-(D4+F4+E4))</f>
+        <v>720500</v>
+      </c>
+      <c r="K4" s="192">
+        <f t="shared" ref="K4:K8" si="1">(N4 - D4 - F4 - E4) / (D4 + F4 + E4)</f>
+        <v>2.506086956521739</v>
+      </c>
+      <c r="L4" s="193">
+        <f t="shared" ref="L4:L8" si="2">C4/B4</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M4" s="91">
-        <f t="shared" ref="M4:M10" si="3">G4*H4*I4</f>
-        <v>360</v>
-      </c>
-      <c r="N4" s="91">
-        <f t="shared" ref="N4:N10" si="4">M4*L4</f>
-        <v>17.28</v>
-      </c>
-      <c r="O4" s="77">
-        <f t="shared" ref="O4:O10" si="5">(B4/C4)*(D4+E4+F4)</f>
+      <c r="M4" s="194">
+        <f>G4*(1-H4)</f>
+        <v>840</v>
+      </c>
+      <c r="N4" s="194">
+        <f t="shared" ref="N4:N8" si="3">M4*L4</f>
+        <v>40.32</v>
+      </c>
+      <c r="O4" s="195">
+        <f t="shared" ref="O4:O8" si="4">(B4/C4)*(D4+E4+F4)</f>
         <v>239.58333333333331</v>
       </c>
-      <c r="P4" s="92">
-        <f t="shared" ref="P4:P10" si="6">B4*(D4+E4+F4)</f>
+      <c r="P4" s="196">
+        <f t="shared" ref="P4:P8" si="5">B4*(D4+E4+F4)</f>
         <v>287500</v>
       </c>
-      <c r="Q4" s="94">
-        <f t="shared" ref="Q4:Q10" si="7">(N4 - D4 -E4 -F4)/N4</f>
-        <v>0.33449074074074081</v>
+      <c r="Q4" s="197">
+        <f t="shared" ref="Q4:Q8" si="6">(N4 - D4 -E4 -F4)/N4</f>
+        <v>0.71478174603174605</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B5" s="15">
         <v>10000</v>
       </c>
       <c r="C5" s="16">
-        <f>120</f>
-        <v>120</v>
+        <f>1300</f>
+        <v>1300</v>
       </c>
       <c r="D5" s="70">
         <v>9.5</v>
@@ -29601,46 +29709,46 @@
       <c r="F5" s="87">
         <v>0</v>
       </c>
-      <c r="G5" s="171">
+      <c r="G5" s="161">
         <v>1200</v>
       </c>
       <c r="H5" s="88">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I5" s="86">
         <v>1</v>
       </c>
       <c r="J5" s="75">
         <f t="shared" si="0"/>
-        <v>-79000</v>
+        <v>1211000</v>
       </c>
       <c r="K5" s="89">
         <f t="shared" si="1"/>
-        <v>-0.68695652173913047</v>
+        <v>10.530434782608696</v>
       </c>
       <c r="L5" s="90">
         <f t="shared" si="2"/>
-        <v>1.2E-2</v>
+        <v>0.13</v>
       </c>
       <c r="M5" s="91">
+        <f>G5*(1-H5)</f>
+        <v>1020</v>
+      </c>
+      <c r="N5" s="91">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="N5" s="91">
+        <v>132.6</v>
+      </c>
+      <c r="O5" s="77">
         <f t="shared" si="4"/>
-        <v>3.6</v>
-      </c>
-      <c r="O5" s="77">
+        <v>88.461538461538467</v>
+      </c>
+      <c r="P5" s="92">
         <f t="shared" si="5"/>
-        <v>958.33333333333326</v>
-      </c>
-      <c r="P5" s="92">
+        <v>115000</v>
+      </c>
+      <c r="Q5" s="94">
         <f t="shared" si="6"/>
-        <v>115000</v>
-      </c>
-      <c r="Q5" s="94">
-        <f t="shared" si="7"/>
-        <v>-2.1944444444444446</v>
+        <v>0.9132730015082956</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -29663,170 +29771,170 @@
       <c r="F6" s="87">
         <v>0</v>
       </c>
-      <c r="G6" s="171">
+      <c r="G6" s="161">
         <v>1200</v>
       </c>
       <c r="H6" s="88">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I6" s="86">
         <v>1</v>
       </c>
       <c r="J6" s="75">
-        <f t="shared" si="0"/>
-        <v>-43000.000000000036</v>
+        <f>B6*(N6-(D6+F6+E6))</f>
+        <v>1211000</v>
       </c>
       <c r="K6" s="89">
         <f t="shared" si="1"/>
-        <v>-0.11168831168831178</v>
+        <v>3.1454545454545455</v>
       </c>
       <c r="L6" s="90">
         <f t="shared" si="2"/>
         <v>5.4285714285714284E-2</v>
       </c>
       <c r="M6" s="91">
+        <f t="shared" ref="M6:M8" si="7">G6*(1-H6)</f>
+        <v>840</v>
+      </c>
+      <c r="N6" s="91">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="N6" s="91">
+        <v>45.6</v>
+      </c>
+      <c r="O6" s="77">
         <f t="shared" si="4"/>
-        <v>9.7714285714285705</v>
-      </c>
-      <c r="O6" s="77">
+        <v>202.63157894736844</v>
+      </c>
+      <c r="P6" s="92">
         <f t="shared" si="5"/>
-        <v>202.63157894736844</v>
-      </c>
-      <c r="P6" s="92">
+        <v>385000</v>
+      </c>
+      <c r="Q6" s="94">
         <f t="shared" si="6"/>
-        <v>385000</v>
-      </c>
-      <c r="Q6" s="94">
-        <f t="shared" si="7"/>
-        <v>-0.12573099415204689</v>
+        <v>0.75877192982456143</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="166">
         <v>13000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="166">
         <f>450</f>
         <v>450</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="168">
         <v>8.5</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="188">
         <v>1</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="188">
         <v>0</v>
       </c>
-      <c r="G7" s="171">
+      <c r="G7" s="187">
         <v>1200</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="189">
         <v>0.15</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="190">
         <v>1</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="191">
         <f t="shared" si="0"/>
-        <v>-42500</v>
-      </c>
-      <c r="K7" s="89">
+        <v>335500</v>
+      </c>
+      <c r="K7" s="192">
         <f t="shared" si="1"/>
-        <v>-0.34412955465587042</v>
-      </c>
-      <c r="L7" s="90">
+        <v>2.7165991902834006</v>
+      </c>
+      <c r="L7" s="193">
         <f t="shared" si="2"/>
         <v>3.4615384615384617E-2</v>
       </c>
-      <c r="M7" s="91">
+      <c r="M7" s="194">
+        <f t="shared" si="7"/>
+        <v>1020</v>
+      </c>
+      <c r="N7" s="194">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="N7" s="91">
+        <v>35.307692307692307</v>
+      </c>
+      <c r="O7" s="195">
         <f t="shared" si="4"/>
-        <v>6.2307692307692308</v>
-      </c>
-      <c r="O7" s="77">
+        <v>274.44444444444446</v>
+      </c>
+      <c r="P7" s="196">
         <f t="shared" si="5"/>
-        <v>274.44444444444446</v>
-      </c>
-      <c r="P7" s="92">
+        <v>123500</v>
+      </c>
+      <c r="Q7" s="197">
         <f t="shared" si="6"/>
-        <v>123500</v>
-      </c>
-      <c r="Q7" s="94">
-        <f t="shared" si="7"/>
-        <v>-0.52469135802469136</v>
+        <v>0.73093681917211328</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="166">
         <v>8000</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="166">
         <f>250</f>
         <v>250</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="198">
         <v>5.3</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="188">
         <v>2</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="188">
         <v>0</v>
       </c>
-      <c r="G8" s="171">
+      <c r="G8" s="187">
         <v>1200</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="189">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="190">
         <v>1</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="191">
         <f t="shared" si="0"/>
-        <v>-56900</v>
-      </c>
-      <c r="K8" s="89">
+        <v>240100</v>
+      </c>
+      <c r="K8" s="192">
         <f t="shared" si="1"/>
-        <v>-0.97431506849315064</v>
-      </c>
-      <c r="L8" s="90">
+        <v>4.1113013698630141</v>
+      </c>
+      <c r="L8" s="193">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
-      <c r="M8" s="91">
+      <c r="M8" s="194">
+        <f t="shared" si="7"/>
+        <v>1194</v>
+      </c>
+      <c r="N8" s="194">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N8" s="91">
+        <v>37.3125</v>
+      </c>
+      <c r="O8" s="195">
         <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-      <c r="O8" s="77">
+        <v>233.6</v>
+      </c>
+      <c r="P8" s="196">
         <f t="shared" si="5"/>
-        <v>233.6</v>
-      </c>
-      <c r="P8" s="92">
+        <v>58400</v>
+      </c>
+      <c r="Q8" s="197">
         <f t="shared" si="6"/>
-        <v>58400</v>
-      </c>
-      <c r="Q8" s="94">
-        <f t="shared" si="7"/>
-        <v>-37.93333333333333</v>
+        <v>0.80435510887772199</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -31985,12 +32093,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -32233,7 +32341,7 @@
       <c r="C4" s="12">
         <v>1200</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="161">
         <v>10.5</v>
       </c>
       <c r="E4" s="87">
@@ -32242,7 +32350,7 @@
       <c r="F4" s="87">
         <v>0</v>
       </c>
-      <c r="G4" s="171">
+      <c r="G4" s="161">
         <v>1200</v>
       </c>
       <c r="H4" s="86">
@@ -32326,7 +32434,7 @@
       <c r="F5" s="87">
         <v>0</v>
       </c>
-      <c r="G5" s="171">
+      <c r="G5" s="161">
         <v>1200</v>
       </c>
       <c r="H5" s="86">
@@ -32410,7 +32518,7 @@
       <c r="F6" s="87">
         <v>0</v>
       </c>
-      <c r="G6" s="171">
+      <c r="G6" s="161">
         <v>1200</v>
       </c>
       <c r="H6" s="86">
@@ -32494,7 +32602,7 @@
       <c r="F7" s="87">
         <v>0</v>
       </c>
-      <c r="G7" s="171">
+      <c r="G7" s="161">
         <v>1200</v>
       </c>
       <c r="H7" s="86">
@@ -32578,7 +32686,7 @@
       <c r="F8" s="87">
         <v>0</v>
       </c>
-      <c r="G8" s="171">
+      <c r="G8" s="161">
         <v>1200</v>
       </c>
       <c r="H8" s="86">
@@ -46327,7 +46435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -68483,15 +68591,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100B0D616FF59B28C4388308FF5C8E7E12D" ma:contentTypeVersion="1" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="167da1d9efc1695ac1818e455b92c3de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc4c5cde-ea08-4c23-9e9a-46c29fbd6dd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7c035e41ce2ce8f85455a34379fee8f" ns2:_="">
     <xsd:import namespace="bc4c5cde-ea08-4c23-9e9a-46c29fbd6dd4"/>
@@ -68617,15 +68716,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85A3D0CB-A3B9-47D3-9FAE-A831B19C49C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E2A2C19-74B9-4DB7-9091-FED7CCBBD19B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68641,4 +68741,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85A3D0CB-A3B9-47D3-9FAE-A831B19C49C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>